--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H2">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I2">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J2">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N2">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O2">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P2">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q2">
-        <v>99.77700221768401</v>
+        <v>38.365670374632</v>
       </c>
       <c r="R2">
-        <v>399.1080088707361</v>
+        <v>153.462681498528</v>
       </c>
       <c r="S2">
-        <v>0.004404882276562797</v>
+        <v>0.000710829675322775</v>
       </c>
       <c r="T2">
-        <v>0.002478468536567615</v>
+        <v>0.000377562728902942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H3">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I3">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J3">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.240334</v>
       </c>
       <c r="O3">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P3">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q3">
-        <v>276.796005756996</v>
+        <v>192.907665344547</v>
       </c>
       <c r="R3">
-        <v>1660.776034541976</v>
+        <v>1157.445992067282</v>
       </c>
       <c r="S3">
-        <v>0.01221978805619268</v>
+        <v>0.003574145630329134</v>
       </c>
       <c r="T3">
-        <v>0.01031345163817791</v>
+        <v>0.002847653012806815</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H4">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I4">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J4">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N4">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O4">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P4">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q4">
-        <v>37.617649008522</v>
+        <v>52.56505235769</v>
       </c>
       <c r="R4">
-        <v>225.705894051132</v>
+        <v>315.39031414614</v>
       </c>
       <c r="S4">
-        <v>0.00166071651503507</v>
+        <v>0.0009739123215072934</v>
       </c>
       <c r="T4">
-        <v>0.001401638013996295</v>
+        <v>0.000775951694026114</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H5">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I5">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J5">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N5">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O5">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P5">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q5">
-        <v>345.287556623394</v>
+        <v>225.7096928952757</v>
       </c>
       <c r="R5">
-        <v>1381.150226493576</v>
+        <v>902.8387715811029</v>
       </c>
       <c r="S5">
-        <v>0.01524350305864867</v>
+        <v>0.004181893504043614</v>
       </c>
       <c r="T5">
-        <v>0.008576969904270339</v>
+        <v>0.002221245367466167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H6">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I6">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J6">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N6">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O6">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P6">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q6">
-        <v>23.824691417978</v>
+        <v>17.1376356257865</v>
       </c>
       <c r="R6">
-        <v>142.948148507868</v>
+        <v>102.825813754719</v>
       </c>
       <c r="S6">
-        <v>0.001051795089440251</v>
+        <v>0.0003175218847663544</v>
       </c>
       <c r="T6">
-        <v>0.0008877107964829005</v>
+        <v>0.0002529813402437502</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H7">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I7">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J7">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N7">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O7">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P7">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q7">
-        <v>22.178546186808</v>
+        <v>66.44491303210651</v>
       </c>
       <c r="R7">
-        <v>133.071277120848</v>
+        <v>398.6694781926391</v>
       </c>
       <c r="S7">
-        <v>0.0009791222711327877</v>
+        <v>0.001231074955715936</v>
       </c>
       <c r="T7">
-        <v>0.0008263752321034282</v>
+        <v>0.0009808426038624156</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J8">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N8">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O8">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P8">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q8">
-        <v>262.4129672381407</v>
+        <v>144.779797724336</v>
       </c>
       <c r="R8">
-        <v>1574.477803428844</v>
+        <v>868.6787863460161</v>
       </c>
       <c r="S8">
-        <v>0.01158481616841635</v>
+        <v>0.00268244437291874</v>
       </c>
       <c r="T8">
-        <v>0.009777537936068739</v>
+        <v>0.002137201891106299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J9">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>26.240334</v>
       </c>
       <c r="O9">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P9">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q9">
         <v>727.9719732598395</v>
@@ -1013,10 +1013,10 @@
         <v>6551.747759338555</v>
       </c>
       <c r="S9">
-        <v>0.03213797540089237</v>
+        <v>0.01348768511910395</v>
       </c>
       <c r="T9">
-        <v>0.04068648165441168</v>
+        <v>0.01611920070042128</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J10">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N10">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O10">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P10">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q10">
-        <v>98.93421006288366</v>
+        <v>198.3637343855089</v>
       </c>
       <c r="R10">
-        <v>890.407890565953</v>
+        <v>1785.27360946958</v>
       </c>
       <c r="S10">
-        <v>0.004367675303583123</v>
+        <v>0.003675234331427134</v>
       </c>
       <c r="T10">
-        <v>0.005529450405476611</v>
+        <v>0.004392291137153142</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J11">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N11">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O11">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P11">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q11">
-        <v>908.1043754579091</v>
+        <v>851.7563582938818</v>
       </c>
       <c r="R11">
-        <v>5448.626252747455</v>
+        <v>5110.538149763291</v>
       </c>
       <c r="S11">
-        <v>0.04009032923234803</v>
+        <v>0.01578113166557582</v>
       </c>
       <c r="T11">
-        <v>0.03383607553544398</v>
+        <v>0.01257340684487993</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J12">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N12">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O12">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P12">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q12">
-        <v>62.65880743625522</v>
+        <v>64.671968328627</v>
       </c>
       <c r="R12">
-        <v>563.929266926297</v>
+        <v>582.0477149576431</v>
       </c>
       <c r="S12">
-        <v>0.002766215302243306</v>
+        <v>0.001198226273661552</v>
       </c>
       <c r="T12">
-        <v>0.003502011770901723</v>
+        <v>0.001432006279736728</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J13">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N13">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O13">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P13">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q13">
-        <v>58.32945452912134</v>
+        <v>250.7418995853204</v>
       </c>
       <c r="R13">
-        <v>524.965090762092</v>
+        <v>2256.677096267883</v>
       </c>
       <c r="S13">
-        <v>0.002575086189664699</v>
+        <v>0.004645684053781081</v>
       </c>
       <c r="T13">
-        <v>0.003260043475277925</v>
+        <v>0.005552080508431896</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H14">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I14">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J14">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N14">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O14">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P14">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q14">
-        <v>1653.970997095218</v>
+        <v>1620.678337783664</v>
       </c>
       <c r="R14">
-        <v>9923.82598257131</v>
+        <v>9724.070026701986</v>
       </c>
       <c r="S14">
-        <v>0.07301830451027889</v>
+        <v>0.03002752839713587</v>
       </c>
       <c r="T14">
-        <v>0.06162715333568101</v>
+        <v>0.02392403403533727</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H15">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I15">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J15">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.240334</v>
       </c>
       <c r="O15">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P15">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q15">
-        <v>4588.357592013643</v>
+        <v>8148.98505261233</v>
       </c>
       <c r="R15">
-        <v>41295.21832812278</v>
+        <v>73340.86547351096</v>
       </c>
       <c r="S15">
-        <v>0.2025634623848331</v>
+        <v>0.1509823845796446</v>
       </c>
       <c r="T15">
-        <v>0.2564441130272873</v>
+        <v>0.1804398114114015</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H16">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I16">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J16">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N16">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O16">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P16">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q16">
-        <v>623.575564068969</v>
+        <v>2220.501840543936</v>
       </c>
       <c r="R16">
-        <v>5612.180076620721</v>
+        <v>19984.51656489542</v>
       </c>
       <c r="S16">
-        <v>0.02752915891652459</v>
+        <v>0.04114091027094714</v>
       </c>
       <c r="T16">
-        <v>0.03485174797873113</v>
+        <v>0.04916770993683139</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H17">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I17">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J17">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N17">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O17">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P17">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q17">
-        <v>5723.719811375014</v>
+        <v>9534.63881462766</v>
       </c>
       <c r="R17">
-        <v>34342.31886825008</v>
+        <v>57207.83288776597</v>
       </c>
       <c r="S17">
-        <v>0.2526866050568579</v>
+        <v>0.1766554356209843</v>
       </c>
       <c r="T17">
-        <v>0.2132664714711296</v>
+        <v>0.1407478697023522</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H18">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I18">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J18">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N18">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O18">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P18">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q18">
-        <v>394.934180665281</v>
+        <v>723.9439464586231</v>
       </c>
       <c r="R18">
-        <v>3554.407625987529</v>
+        <v>6515.495518127608</v>
       </c>
       <c r="S18">
-        <v>0.01743526598470023</v>
+        <v>0.01341305483230481</v>
       </c>
       <c r="T18">
-        <v>0.02207294083642234</v>
+        <v>0.01603000966722157</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H19">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I19">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J19">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N19">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O19">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P19">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q19">
-        <v>367.6465651943161</v>
+        <v>2806.827826948597</v>
       </c>
       <c r="R19">
-        <v>3308.819086748844</v>
+        <v>25261.45044253737</v>
       </c>
       <c r="S19">
-        <v>0.01623059225141372</v>
+        <v>0.05200421349175861</v>
       </c>
       <c r="T19">
-        <v>0.02054783120715949</v>
+        <v>0.06215049855767268</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H20">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I20">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J20">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N20">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O20">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P20">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q20">
-        <v>167.721301233675</v>
+        <v>144.218744134992</v>
       </c>
       <c r="R20">
-        <v>670.8852049347</v>
+        <v>576.8749765399681</v>
       </c>
       <c r="S20">
-        <v>0.007404437603711899</v>
+        <v>0.002672049310435594</v>
       </c>
       <c r="T20">
-        <v>0.004166210236632739</v>
+        <v>0.001419279842183262</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H21">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I21">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J21">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.240334</v>
       </c>
       <c r="O21">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P21">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q21">
-        <v>465.2834343585751</v>
+        <v>725.1509216009821</v>
       </c>
       <c r="R21">
-        <v>2791.70060615145</v>
+        <v>4350.905529605892</v>
       </c>
       <c r="S21">
-        <v>0.02054099349580488</v>
+        <v>0.01343541736996382</v>
       </c>
       <c r="T21">
-        <v>0.01733651533438432</v>
+        <v>0.01070449016605159</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H22">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I22">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J22">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N22">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O22">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P22">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q22">
-        <v>63.23382042783749</v>
+        <v>197.59503124514</v>
       </c>
       <c r="R22">
-        <v>379.402922567025</v>
+        <v>1185.57018747084</v>
       </c>
       <c r="S22">
-        <v>0.002791600556150696</v>
+        <v>0.003660991989292815</v>
       </c>
       <c r="T22">
-        <v>0.002356099565440515</v>
+        <v>0.002916846694691417</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H23">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I23">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J23">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N23">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O23">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P23">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q23">
-        <v>580.4150957584875</v>
+        <v>848.4556148919795</v>
       </c>
       <c r="R23">
-        <v>2321.66038303395</v>
+        <v>3393.822459567918</v>
       </c>
       <c r="S23">
-        <v>0.025623742060101</v>
+        <v>0.01571997630616759</v>
       </c>
       <c r="T23">
-        <v>0.01441755636081167</v>
+        <v>0.008349788083553387</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H24">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I24">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J24">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N24">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O24">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P24">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q24">
-        <v>40.0483894815375</v>
+        <v>64.421350213869</v>
       </c>
       <c r="R24">
-        <v>240.290336889225</v>
+        <v>386.528101283214</v>
       </c>
       <c r="S24">
-        <v>0.001768027071481234</v>
+        <v>0.001193582883062512</v>
       </c>
       <c r="T24">
-        <v>0.001492207689107199</v>
+        <v>0.0009509712934317709</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H25">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I25">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J25">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N25">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O25">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P25">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q25">
-        <v>37.28128269285</v>
+        <v>249.7702195237891</v>
       </c>
       <c r="R25">
-        <v>223.6876961571</v>
+        <v>1498.621317142734</v>
       </c>
       <c r="S25">
-        <v>0.001645866860411214</v>
+        <v>0.004627681005328873</v>
       </c>
       <c r="T25">
-        <v>0.001389104965624055</v>
+        <v>0.003687043316116951</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H26">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I26">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J26">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N26">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O26">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P26">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q26">
-        <v>49.80662919557534</v>
+        <v>608.5095540874881</v>
       </c>
       <c r="R26">
-        <v>298.839775173452</v>
+        <v>3651.057324524928</v>
       </c>
       <c r="S26">
-        <v>0.002198826716804696</v>
+        <v>0.01127431488982459</v>
       </c>
       <c r="T26">
-        <v>0.001855800845335151</v>
+        <v>0.008982660496792695</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H27">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I27">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J27">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>26.240334</v>
       </c>
       <c r="O27">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P27">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q27">
-        <v>138.1708782097647</v>
+        <v>3059.666526679182</v>
       </c>
       <c r="R27">
-        <v>1243.537903887882</v>
+        <v>27536.99874011263</v>
       </c>
       <c r="S27">
-        <v>0.006099867093976882</v>
+        <v>0.05668874654131954</v>
       </c>
       <c r="T27">
-        <v>0.007722394690940881</v>
+        <v>0.06774900769744162</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H28">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I28">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J28">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N28">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O28">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P28">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q28">
-        <v>18.77795738229433</v>
+        <v>833.7228636545157</v>
       </c>
       <c r="R28">
-        <v>169.001616440649</v>
+        <v>7503.50577289064</v>
       </c>
       <c r="S28">
-        <v>0.000828995558343803</v>
+        <v>0.01544701152602753</v>
       </c>
       <c r="T28">
-        <v>0.001049503341620187</v>
+        <v>0.01846080159871796</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H29">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I29">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J29">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N29">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O29">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P29">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q29">
-        <v>172.360452973597</v>
+        <v>3579.932351911772</v>
       </c>
       <c r="R29">
-        <v>1034.162717841582</v>
+        <v>21479.59411147063</v>
       </c>
       <c r="S29">
-        <v>0.007609243489068975</v>
+        <v>0.06632810339395383</v>
       </c>
       <c r="T29">
-        <v>0.006422170692875692</v>
+        <v>0.05284603454900667</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H30">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I30">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J30">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N30">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O30">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P30">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q30">
-        <v>11.89279638373344</v>
+        <v>271.8163115861161</v>
       </c>
       <c r="R30">
-        <v>107.035167453601</v>
+        <v>2446.346804275044</v>
       </c>
       <c r="S30">
-        <v>0.0005250344953758577</v>
+        <v>0.005036145559962638</v>
       </c>
       <c r="T30">
-        <v>0.0006646904821344152</v>
+        <v>0.006018723029246278</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H31">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I31">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J31">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N31">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O31">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P31">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q31">
-        <v>11.07107451087067</v>
+        <v>1053.86831523433</v>
       </c>
       <c r="R31">
-        <v>99.639670597836</v>
+        <v>9484.814837108966</v>
       </c>
       <c r="S31">
-        <v>0.0004887577178260536</v>
+        <v>0.01952581213975891</v>
       </c>
       <c r="T31">
-        <v>0.0006187643020981864</v>
+        <v>0.02333539684090771</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H32">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I32">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J32">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N32">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O32">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P32">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q32">
-        <v>572.2037634741433</v>
+        <v>934.6073112397598</v>
       </c>
       <c r="R32">
-        <v>3433.22258084486</v>
+        <v>5607.643867438559</v>
       </c>
       <c r="S32">
-        <v>0.02526123415504925</v>
+        <v>0.01731617368120138</v>
       </c>
       <c r="T32">
-        <v>0.02132037933724704</v>
+        <v>0.01379643116249248</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H33">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I33">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J33">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>26.240334</v>
       </c>
       <c r="O33">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P33">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q33">
-        <v>1587.376977544556</v>
+        <v>4699.329183217376</v>
       </c>
       <c r="R33">
-        <v>14286.39279790101</v>
+        <v>42293.96264895639</v>
       </c>
       <c r="S33">
-        <v>0.07007836033553001</v>
+        <v>0.08706801171262707</v>
       </c>
       <c r="T33">
-        <v>0.08871877853524099</v>
+        <v>0.1040554211481848</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H34">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I34">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J34">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N34">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O34">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P34">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q34">
-        <v>215.7306779849383</v>
+        <v>1280.511503369478</v>
       </c>
       <c r="R34">
-        <v>1941.576101864445</v>
+        <v>11524.6035303253</v>
       </c>
       <c r="S34">
-        <v>0.009523920531241511</v>
+        <v>0.02372500121329979</v>
       </c>
       <c r="T34">
-        <v>0.01205722554513104</v>
+        <v>0.0283538689402859</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H35">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I35">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J35">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N35">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O35">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P35">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q35">
-        <v>1980.164115871585</v>
+        <v>5498.403315717613</v>
       </c>
       <c r="R35">
-        <v>11880.98469522951</v>
+        <v>32990.41989430568</v>
       </c>
       <c r="S35">
-        <v>0.08741884026199444</v>
+        <v>0.1018730600961826</v>
       </c>
       <c r="T35">
-        <v>0.07378114719843909</v>
+        <v>0.08116600623238451</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H36">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I36">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J36">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N36">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O36">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P36">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q36">
-        <v>136.6304638340894</v>
+        <v>417.481550480445</v>
       </c>
       <c r="R36">
-        <v>1229.674174506805</v>
+        <v>3757.333954324004</v>
       </c>
       <c r="S36">
-        <v>0.00603186200431533</v>
+        <v>0.007734995168427572</v>
       </c>
       <c r="T36">
-        <v>0.00763630066048604</v>
+        <v>0.009244131845877206</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H37">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I37">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J37">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N37">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O37">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P37">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q37">
-        <v>127.1901070828866</v>
+        <v>1618.631993344712</v>
       </c>
       <c r="R37">
-        <v>1144.71096374598</v>
+        <v>14567.68794010241</v>
       </c>
       <c r="S37">
-        <v>0.005615096024043847</v>
+        <v>0.0299896142322344</v>
       </c>
       <c r="T37">
-        <v>0.007108677460860722</v>
+        <v>0.03584073964277955</v>
       </c>
     </row>
   </sheetData>
